--- a/resources/G3EI2/Notes.xlsx
+++ b/resources/G3EI2/Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B284E70E-D98A-48D5-9421-3AC88884049A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1268FA4-A610-421F-A0F2-4DCA5664D728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{04D5BF00-570F-43C0-BB08-D9D1D859260E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04D5BF00-570F-43C0-BB08-D9D1D859260E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CNE</t>
   </si>
@@ -45,33 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Note_AP31</t>
-  </si>
-  <si>
-    <t>Note_AP32</t>
-  </si>
-  <si>
-    <t>Note_AP33</t>
-  </si>
-  <si>
-    <t>Note_AP34</t>
-  </si>
-  <si>
-    <t>Note_AP35</t>
-  </si>
-  <si>
-    <t>Note_AP36</t>
-  </si>
-  <si>
-    <t>Note_AP41</t>
-  </si>
-  <si>
-    <t>Note_AP42</t>
-  </si>
-  <si>
-    <t>Note_AP43</t>
-  </si>
-  <si>
     <t>G3EI2_FN1</t>
   </si>
   <si>
@@ -132,17 +103,47 @@
     <t>G3EI2_LN10</t>
   </si>
   <si>
-    <t>10,86</t>
+    <t>Note_G3EI31</t>
+  </si>
+  <si>
+    <t>Note_G3EI32</t>
+  </si>
+  <si>
+    <t>Note_G3EI33</t>
+  </si>
+  <si>
+    <t>Note_G3EI34</t>
+  </si>
+  <si>
+    <t>Note_G3EI35</t>
+  </si>
+  <si>
+    <t>Note_G3EI36</t>
+  </si>
+  <si>
+    <t>Note_G3EI37</t>
+  </si>
+  <si>
+    <t>Note_G3EI38</t>
+  </si>
+  <si>
+    <t>Note_G3EI39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,58 +516,58 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>18000041</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>19000051</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>12.76</v>
@@ -596,16 +597,16 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>19000052</v>
+        <v>18000042</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>13.76</v>
@@ -635,16 +636,16 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>19000053</v>
+        <v>18000043</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -674,16 +675,16 @@
         <v>14.83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>19000054</v>
+        <v>18000044</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>11.8</v>
@@ -713,16 +714,16 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>19000055</v>
+        <v>18000045</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>16.899999999999999</v>
@@ -752,16 +753,16 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>19000056</v>
+        <v>18000046</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>14.74</v>
@@ -791,22 +792,22 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>19000057</v>
+        <v>18000047</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>12.86</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
+      <c r="E8">
+        <v>10.86</v>
       </c>
       <c r="F8">
         <v>14.11</v>
@@ -830,16 +831,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>19000058</v>
+        <v>18000048</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>16.510000000000002</v>
@@ -869,16 +870,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>19000059</v>
+        <v>18000049</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>17.149999999999999</v>
@@ -908,16 +909,16 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>19000060</v>
+        <v>18000050</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>11.85</v>
@@ -948,6 +949,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/G3EI2/Notes.xlsx
+++ b/resources/G3EI2/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1268FA4-A610-421F-A0F2-4DCA5664D728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB73B2-4C3E-4CF4-A05A-C84A92D2E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04D5BF00-570F-43C0-BB08-D9D1D859260E}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -564,10 +564,10 @@
         <v>18000041</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="D2">
         <v>12.76</v>
@@ -603,10 +603,10 @@
         <v>18000042</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D3">
         <v>13.76</v>
@@ -642,10 +642,10 @@
         <v>18000043</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -681,10 +681,10 @@
         <v>18000044</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D5">
         <v>11.8</v>
@@ -720,10 +720,10 @@
         <v>18000045</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D6">
         <v>16.899999999999999</v>
@@ -759,10 +759,10 @@
         <v>18000046</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D7">
         <v>14.74</v>
@@ -798,10 +798,10 @@
         <v>18000047</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D8">
         <v>12.86</v>
@@ -837,10 +837,10 @@
         <v>18000048</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D9">
         <v>16.510000000000002</v>
@@ -876,10 +876,10 @@
         <v>18000049</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D10">
         <v>17.149999999999999</v>
@@ -915,10 +915,10 @@
         <v>18000050</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D11">
         <v>11.85</v>

--- a/resources/G3EI2/Notes.xlsx
+++ b/resources/G3EI2/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\G3EI2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CB73B2-4C3E-4CF4-A05A-C84A92D2E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864D4A4E-2182-4FFC-9125-F13775FA086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{04D5BF00-570F-43C0-BB08-D9D1D859260E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>CNE</t>
   </si>
@@ -43,66 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>G3EI2_FN1</t>
-  </si>
-  <si>
-    <t>G3EI2_LN1</t>
-  </si>
-  <si>
-    <t>G3EI2_FN2</t>
-  </si>
-  <si>
-    <t>G3EI2_LN2</t>
-  </si>
-  <si>
-    <t>G3EI2_FN3</t>
-  </si>
-  <si>
-    <t>G3EI2_LN3</t>
-  </si>
-  <si>
-    <t>G3EI2_FN4</t>
-  </si>
-  <si>
-    <t>G3EI2_LN4</t>
-  </si>
-  <si>
-    <t>G3EI2_FN5</t>
-  </si>
-  <si>
-    <t>G3EI2_LN5</t>
-  </si>
-  <si>
-    <t>G3EI2_FN6</t>
-  </si>
-  <si>
-    <t>G3EI2_LN6</t>
-  </si>
-  <si>
-    <t>G3EI2_FN7</t>
-  </si>
-  <si>
-    <t>G3EI2_LN7</t>
-  </si>
-  <si>
-    <t>G3EI2_FN8</t>
-  </si>
-  <si>
-    <t>G3EI2_LN8</t>
-  </si>
-  <si>
-    <t>G3EI2_FN9</t>
-  </si>
-  <si>
-    <t>G3EI2_LN9</t>
-  </si>
-  <si>
-    <t>G3EI2_FN10</t>
-  </si>
-  <si>
-    <t>G3EI2_LN10</t>
-  </si>
-  <si>
     <t>Note_G3EI31</t>
   </si>
   <si>
@@ -128,6 +68,306 @@
   </si>
   <si>
     <t>Note_G3EI39</t>
+  </si>
+  <si>
+    <t>Halee Meyers</t>
+  </si>
+  <si>
+    <t>Shellie Ayers</t>
+  </si>
+  <si>
+    <t>Brooke Stewart</t>
+  </si>
+  <si>
+    <t>Briar O'connor</t>
+  </si>
+  <si>
+    <t>Jocelyn Hawkins</t>
+  </si>
+  <si>
+    <t>Bree Chambers</t>
+  </si>
+  <si>
+    <t>Lane Cochran</t>
+  </si>
+  <si>
+    <t>Ivy Howard</t>
+  </si>
+  <si>
+    <t>Hall Wade</t>
+  </si>
+  <si>
+    <t>Armand Bonner</t>
+  </si>
+  <si>
+    <t>Vaughan Grant</t>
+  </si>
+  <si>
+    <t>Emerald Hester</t>
+  </si>
+  <si>
+    <t>Kelsey Solis</t>
+  </si>
+  <si>
+    <t>Alfonso Beasley</t>
+  </si>
+  <si>
+    <t>Paul Rios</t>
+  </si>
+  <si>
+    <t>Lacey Beard</t>
+  </si>
+  <si>
+    <t>Thaddeus Finch</t>
+  </si>
+  <si>
+    <t>Jerry Reese</t>
+  </si>
+  <si>
+    <t>Fredericka Mcclure</t>
+  </si>
+  <si>
+    <t>MacKenzie Roberts</t>
+  </si>
+  <si>
+    <t>Halla Munoz</t>
+  </si>
+  <si>
+    <t>Octavius Albert</t>
+  </si>
+  <si>
+    <t>Tatyana Lee</t>
+  </si>
+  <si>
+    <t>Hyatt Castillo</t>
+  </si>
+  <si>
+    <t>Hope Cote</t>
+  </si>
+  <si>
+    <t>Christopher Rocha</t>
+  </si>
+  <si>
+    <t>Medge Copeland</t>
+  </si>
+  <si>
+    <t>Ryan Gordon</t>
+  </si>
+  <si>
+    <t>Ila Goodwin</t>
+  </si>
+  <si>
+    <t>Melodie Kidd</t>
+  </si>
+  <si>
+    <t>Rachel Mckay</t>
+  </si>
+  <si>
+    <t>Marvin Alvarez</t>
+  </si>
+  <si>
+    <t>Edan White</t>
+  </si>
+  <si>
+    <t>Ori Mcmillan</t>
+  </si>
+  <si>
+    <t>Rhonda Lambert</t>
+  </si>
+  <si>
+    <t>Harlan Mclean</t>
+  </si>
+  <si>
+    <t>Aphrodite Ingram</t>
+  </si>
+  <si>
+    <t>Irma Walters</t>
+  </si>
+  <si>
+    <t>Amal Hull</t>
+  </si>
+  <si>
+    <t>Ursula Knight</t>
+  </si>
+  <si>
+    <t>David Mccarty</t>
+  </si>
+  <si>
+    <t>Katelyn Koch</t>
+  </si>
+  <si>
+    <t>Pearl Mccall</t>
+  </si>
+  <si>
+    <t>Heidi Martinez</t>
+  </si>
+  <si>
+    <t>Yuli Bowman</t>
+  </si>
+  <si>
+    <t>Gage Mckay</t>
+  </si>
+  <si>
+    <t>Kasimir Dyer</t>
+  </si>
+  <si>
+    <t>Stone Kennedy</t>
+  </si>
+  <si>
+    <t>Risa Zimmerman</t>
+  </si>
+  <si>
+    <t>Finn Perry</t>
+  </si>
+  <si>
+    <t>Richard Kirk</t>
+  </si>
+  <si>
+    <t>Aretha Simpson</t>
+  </si>
+  <si>
+    <t>Forrest Lindsey</t>
+  </si>
+  <si>
+    <t>Oprah Walter</t>
+  </si>
+  <si>
+    <t>Norman Melton</t>
+  </si>
+  <si>
+    <t>Sawyer Norton</t>
+  </si>
+  <si>
+    <t>Gil Mccray</t>
+  </si>
+  <si>
+    <t>Helen Levine</t>
+  </si>
+  <si>
+    <t>Petra Strong</t>
+  </si>
+  <si>
+    <t>Lillith Hernandez</t>
+  </si>
+  <si>
+    <t>Nicole Spence</t>
+  </si>
+  <si>
+    <t>Isabelle Dennis</t>
+  </si>
+  <si>
+    <t>Lunea Henry</t>
+  </si>
+  <si>
+    <t>Harlan Yang</t>
+  </si>
+  <si>
+    <t>Raja Kline</t>
+  </si>
+  <si>
+    <t>Ciara Ferguson</t>
+  </si>
+  <si>
+    <t>Murphy Justice</t>
+  </si>
+  <si>
+    <t>Jolie Weeks</t>
+  </si>
+  <si>
+    <t>Shafira Solis</t>
+  </si>
+  <si>
+    <t>Thor Walters</t>
+  </si>
+  <si>
+    <t>Dale Ramirez</t>
+  </si>
+  <si>
+    <t>Avram Barlow</t>
+  </si>
+  <si>
+    <t>Tiger Mcknight</t>
+  </si>
+  <si>
+    <t>Dacey Shepard</t>
+  </si>
+  <si>
+    <t>Gage Rosales</t>
+  </si>
+  <si>
+    <t>Levi Chambers</t>
+  </si>
+  <si>
+    <t>Dillon Walter</t>
+  </si>
+  <si>
+    <t>Serina Jackson</t>
+  </si>
+  <si>
+    <t>Gannon Hansen</t>
+  </si>
+  <si>
+    <t>Scott Kane</t>
+  </si>
+  <si>
+    <t>Gabriel Beck</t>
+  </si>
+  <si>
+    <t>Zahir Morrow</t>
+  </si>
+  <si>
+    <t>Colton Wilkinson</t>
+  </si>
+  <si>
+    <t>Illana Spencer</t>
+  </si>
+  <si>
+    <t>Dawn Skinner</t>
+  </si>
+  <si>
+    <t>Dolan Melton</t>
+  </si>
+  <si>
+    <t>Jorden Tate</t>
+  </si>
+  <si>
+    <t>Colton Huff</t>
+  </si>
+  <si>
+    <t>Randall Gallagher</t>
+  </si>
+  <si>
+    <t>Solomon Melendez</t>
+  </si>
+  <si>
+    <t>Magee Weaver</t>
+  </si>
+  <si>
+    <t>Echo Dudley</t>
+  </si>
+  <si>
+    <t>Preston Clark</t>
+  </si>
+  <si>
+    <t>Brenna Nielsen</t>
+  </si>
+  <si>
+    <t>Caesar Pugh</t>
+  </si>
+  <si>
+    <t>Germane Collier</t>
+  </si>
+  <si>
+    <t>Cyrus Buckley</t>
+  </si>
+  <si>
+    <t>Blaze Sosa</t>
+  </si>
+  <si>
+    <t>Gannon Foster</t>
+  </si>
+  <si>
+    <t>Baxter Battle</t>
   </si>
 </sst>
 </file>
@@ -157,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,25 +420,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38480DAF-FB09-4353-8272-C8AB1CE16225}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -532,420 +760,1980 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>18000041</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>18000201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>12.76</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>10.73</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>15.06</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <v>12</v>
       </c>
       <c r="H2">
-        <v>9.09</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
       <c r="J2">
-        <v>19.32</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>11.44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+1</f>
-        <v>18000042</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>18000202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13.76</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>15.13</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>13.6</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>19.649999999999999</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>15.98</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>18.64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A11" si="0">A3+1</f>
-        <v>18000043</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
+        <v>18000203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>12.7</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>15.77</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>12.7</v>
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>17.760000000000002</v>
+        <v>18</v>
       </c>
       <c r="J4">
-        <v>12.39</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>13.09</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>14.83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>18000044</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>18000204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>11.8</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>16.260000000000002</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>5.87</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>12.76</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>12.98</v>
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>13.09</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L5">
-        <v>17.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>18000045</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>18000205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>16.899999999999999</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>18</v>
       </c>
       <c r="F6">
-        <v>16.66</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J6">
-        <v>17.88</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>12.04</v>
+        <v>11</v>
       </c>
       <c r="L6">
-        <v>15.84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>18000046</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>18000206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>14.74</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>11.85</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>18.649999999999999</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>15.66</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>11.29</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>8.66</v>
+        <v>7</v>
       </c>
       <c r="K7">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>16.899999999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>18000047</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18000207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>12.86</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>10.86</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>14.11</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>12.78</v>
+        <v>19</v>
       </c>
       <c r="I8">
-        <v>13.17</v>
+        <v>12</v>
       </c>
       <c r="J8">
-        <v>13.82</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>10.83</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>18000048</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>18000208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>16.510000000000002</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>18.84</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>13.45</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>12.07</v>
+        <v>18</v>
       </c>
       <c r="I9">
-        <v>14.63</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9">
-        <v>15.92</v>
+        <v>17</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>18000049</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>18000209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="K10">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="E10">
-        <v>10.95</v>
-      </c>
-      <c r="F10">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>12.65</v>
-      </c>
-      <c r="I10">
-        <v>14.02</v>
-      </c>
-      <c r="J10">
-        <v>15.78</v>
-      </c>
-      <c r="K10">
-        <v>16.32</v>
-      </c>
       <c r="L10">
-        <v>4.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>18000050</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>18000210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>11.85</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>11.39</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>9.67</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>9.26</v>
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>17.68</v>
+        <v>13</v>
       </c>
       <c r="J11">
-        <v>18.55</v>
+        <v>18</v>
       </c>
       <c r="K11">
-        <v>8.4499999999999993</v>
+        <v>11</v>
       </c>
       <c r="L11">
-        <v>10.74</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>18000211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>18000212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>18000213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>18000214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>18000215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>18000216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>18000217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>18000218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>18000219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>18000220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>18000221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>18000222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>18000223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>18000224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>18000225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>11</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>18000226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>18000227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>18000228</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>18000229</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>12</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>18000230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>18000231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>18000232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>18000233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>18000234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>18000235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>18000236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>18000237</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>19</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <v>18</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>18000238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>18000239</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>18</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <v>13</v>
+      </c>
+      <c r="J40">
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <v>15</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>18000240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>17</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41">
+        <v>16</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>18000241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>13</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <v>19</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>18000242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>13</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>18000243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>14</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>18000244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>18000245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
+      </c>
+      <c r="H46">
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>17</v>
+      </c>
+      <c r="K46">
+        <v>15</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>18000246</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>16</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>12</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>18000247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>11</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>18000248</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>16</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>20</v>
+      </c>
+      <c r="K49">
+        <v>14</v>
+      </c>
+      <c r="L49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>18000249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>16</v>
+      </c>
+      <c r="H50">
+        <v>19</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <v>16</v>
+      </c>
+      <c r="L50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>18000250</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
